--- a/Replication Package/documentation/rider-audits/baseline-study/codebooks/check_in.xlsx
+++ b/Replication Package/documentation/rider-audits/baseline-study/codebooks/check_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\baseline-study\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C497B7-611F-4CCD-B179-DA7133F448B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A429C-629D-4ACF-B55A-8B3E4B852107}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="481">
   <si>
     <t>name</t>
   </si>
@@ -1821,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4975,7 +4975,7 @@
         <v>480</v>
       </c>
       <c r="E114" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4986,11 +4986,6 @@
     <row r="116" spans="1:5">
       <c r="E116" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="E117" t="s">
-        <v>476</v>
       </c>
     </row>
   </sheetData>
